--- a/www/terminologies/ASS-X12-CommuneDeptRegionOM.xlsx
+++ b/www/terminologies/ASS-X12-CommuneDeptRegionOM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Property</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>
@@ -208,7 +214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -304,13 +310,21 @@
       <c r="A12" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
